--- a/biology/Médecine/Neuromyélite_optique/Neuromyélite_optique.xlsx
+++ b/biology/Médecine/Neuromyélite_optique/Neuromyélite_optique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neuromy%C3%A9lite_optique</t>
+          <t>Neuromyélite_optique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La neuromyélite optique, aussi connue comme la « maladie de Devic », la « sclérose optique-spinale », la « leuconévraxite amaurotique » ou la « neuropticomyélite », est un syndrome associant une atteinte du nerf optique et de la moelle épinière. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neuromy%C3%A9lite_optique</t>
+          <t>Neuromyélite_optique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une maladie auto-immune longtemps confondue avec une forme particulière de sclérose en plaques et que l'on sait à présent être due à la présence d'auto-anticorps anti-aquaporine 4[1],[2] ou 'anti-MOG[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une maladie auto-immune longtemps confondue avec une forme particulière de sclérose en plaques et que l'on sait à présent être due à la présence d'auto-anticorps anti-aquaporine 4, ou 'anti-MOG.
 Il associe une névrite optique aiguë et une myélite aiguë transverse.
-Il a été découvert par Eugène Devic[4]. Cette éponymie a été proposée en 1907 par Acchiote après que Fernand Gault a consacré sa thèse à ce sujet en 1894.
+Il a été découvert par Eugène Devic. Cette éponymie a été proposée en 1907 par Acchiote après que Fernand Gault a consacré sa thèse à ce sujet en 1894.
 </t>
         </is>
       </c>
